--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithNoneTheme/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithNoneTheme/outputfile.xlsx
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt2" cacheId="4276" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt2" cacheId="4276" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" createdVersion="5" indent="1">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisRow" defaultSubtotal="0">

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithNoneTheme/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithNoneTheme/outputfile.xlsx
@@ -289,11 +289,11 @@
         <x:item x="4"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="Code" defaultSubtotal="0"/>
-    <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="Quality" defaultSubtotal="0"/>
+    <x:pivotField name="Code"/>
+    <x:pivotField name="NumberOfOrders" dataField="1"/>
+    <x:pivotField name="Quality"/>
     <x:pivotField name="Month" axis="axisCol" defaultSubtotal="0"/>
-    <x:pivotField name="BakeDate" defaultSubtotal="0"/>
+    <x:pivotField name="BakeDate"/>
   </x:pivotFields>
   <x:rowFields count="1">
     <x:field x="0"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithNoneTheme/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithNoneTheme/outputfile.xlsx
@@ -650,12 +650,12 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.570312" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.570313" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="8.855469" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="19.425781" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="10.710938" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="10.710937" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.285156" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.710938" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.710937" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithNoneTheme/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithNoneTheme/outputfile.xlsx
@@ -650,12 +650,12 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.570313" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.570312" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="8.855469" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="19.425781" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="10.710937" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="10.710938" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.285156" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.710937" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.710938" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithNoneTheme/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithNoneTheme/outputfile.xlsx
@@ -682,13 +682,13 @@
       <x:c r="A2" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="n">
+      <x:c r="B2" s="0">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="n">
+      <x:c r="C2" s="0">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="n">
+      <x:c r="D2" s="0">
         <x:v>60.2</x:v>
       </x:c>
       <x:c r="F2" s="1">
@@ -699,13 +699,13 @@
       <x:c r="A3" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="n">
+      <x:c r="B3" s="0">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="n">
+      <x:c r="C3" s="0">
         <x:v>250</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="n">
+      <x:c r="D3" s="0">
         <x:v>50.42</x:v>
       </x:c>
       <x:c r="F3" s="1">
@@ -716,13 +716,13 @@
       <x:c r="A4" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="n">
+      <x:c r="B4" s="0">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="n">
+      <x:c r="C4" s="0">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="n">
+      <x:c r="D4" s="0">
         <x:v>22.12</x:v>
       </x:c>
       <x:c r="F4" s="1">
@@ -733,13 +733,13 @@
       <x:c r="A5" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="n">
+      <x:c r="B5" s="0">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="n">
+      <x:c r="C5" s="0">
         <x:v>250</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="n">
+      <x:c r="D5" s="0">
         <x:v>89.99</x:v>
       </x:c>
       <x:c r="F5" s="1">
@@ -750,13 +750,13 @@
       <x:c r="A6" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="n">
+      <x:c r="B6" s="0">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="n">
+      <x:c r="C6" s="0">
         <x:v>225</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="n">
+      <x:c r="D6" s="0">
         <x:v>70</x:v>
       </x:c>
       <x:c r="F6" s="1">
@@ -767,13 +767,13 @@
       <x:c r="A7" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="n">
+      <x:c r="B7" s="0">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="n">
+      <x:c r="C7" s="0">
         <x:v>210</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="n">
+      <x:c r="D7" s="0">
         <x:v>75.33</x:v>
       </x:c>
       <x:c r="F7" s="1">
@@ -784,13 +784,13 @@
       <x:c r="A8" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="n">
+      <x:c r="B8" s="0">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="n">
+      <x:c r="C8" s="0">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="n">
+      <x:c r="D8" s="0">
         <x:v>10.24</x:v>
       </x:c>
       <x:c r="F8" s="1">
@@ -801,13 +801,13 @@
       <x:c r="A9" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="n">
+      <x:c r="B9" s="0">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="n">
+      <x:c r="C9" s="0">
         <x:v>184</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="n">
+      <x:c r="D9" s="0">
         <x:v>33.33</x:v>
       </x:c>
       <x:c r="F9" s="1">
@@ -818,13 +818,13 @@
       <x:c r="A10" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="n">
+      <x:c r="B10" s="0">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="n">
+      <x:c r="C10" s="0">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="n">
+      <x:c r="D10" s="0">
         <x:v>25</x:v>
       </x:c>
       <x:c r="F10" s="1">
@@ -835,28 +835,28 @@
       <x:c r="A11" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="n">
+      <x:c r="B11" s="0">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="n">
+      <x:c r="C11" s="0">
         <x:v>394</x:v>
       </x:c>
-      <x:c r="D11" s="0" t="n">
+      <x:c r="D11" s="0">
         <x:v>-20.24</x:v>
       </x:c>
-      <x:c r="F11" s="2" t="s"/>
+      <x:c r="F11" s="2"/>
     </x:row>
     <x:row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A12" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="n">
+      <x:c r="B12" s="0">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="n">
+      <x:c r="C12" s="0">
         <x:v>190</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="n">
+      <x:c r="D12" s="0">
         <x:v>60</x:v>
       </x:c>
       <x:c r="F12" s="1">
@@ -867,13 +867,13 @@
       <x:c r="A13" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="n">
+      <x:c r="B13" s="0">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="n">
+      <x:c r="C13" s="0">
         <x:v>221</x:v>
       </x:c>
-      <x:c r="D13" s="0" t="n">
+      <x:c r="D13" s="0">
         <x:v>24.76</x:v>
       </x:c>
       <x:c r="F13" s="1">
@@ -884,13 +884,13 @@
       <x:c r="A14" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="n">
+      <x:c r="B14" s="0">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="n">
+      <x:c r="C14" s="0">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="D14" s="0" t="n">
+      <x:c r="D14" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F14" s="1">
@@ -901,13 +901,13 @@
       <x:c r="A15" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="n">
+      <x:c r="B15" s="0">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="C15" s="0" t="n">
+      <x:c r="C15" s="0">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="D15" s="0" t="n">
+      <x:c r="D15" s="0">
         <x:v>5.19</x:v>
       </x:c>
       <x:c r="F15" s="1">
@@ -918,13 +918,13 @@
       <x:c r="A16" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="n">
+      <x:c r="B16" s="0">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="n">
+      <x:c r="C16" s="0">
         <x:v>243</x:v>
       </x:c>
-      <x:c r="D16" s="0" t="n">
+      <x:c r="D16" s="0">
         <x:v>44.2</x:v>
       </x:c>
       <x:c r="F16" s="1">
@@ -935,10 +935,10 @@
       <x:c r="A17" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C17" s="0" t="n">
+      <x:c r="C17" s="0">
         <x:v>255</x:v>
       </x:c>
-      <x:c r="D17" s="0" t="n">
+      <x:c r="D17" s="0">
         <x:v>18.4</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithNoneTheme/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithNoneTheme/outputfile.xlsx
@@ -968,16 +968,7 @@
     <x:col min="2" max="2" width="16.285156" style="0" bestFit="1" customWidth="1"/>
     <x:col min="3" max="3" width="11.140625" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:3" x14ac:dyDescent="0.25"/>
-    <x:row r="2" spans="1:3" x14ac:dyDescent="0.25"/>
-    <x:row r="3" spans="1:3" x14ac:dyDescent="0.25"/>
-    <x:row r="4" spans="1:3" x14ac:dyDescent="0.25"/>
-    <x:row r="5" spans="1:3" x14ac:dyDescent="0.25"/>
-    <x:row r="6" spans="1:3" x14ac:dyDescent="0.25"/>
-    <x:row r="7" spans="1:3" x14ac:dyDescent="0.25"/>
-    <x:row r="8" spans="1:3" x14ac:dyDescent="0.25"/>
-  </x:sheetData>
+  <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithNoneTheme/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithNoneTheme/outputfile.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -249,7 +249,7 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
+      <x:sharedItems containsSemiMixedTypes="1" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
     </x:cacheField>
     <x:cacheField name="NumberOfOrders">
       <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithNoneTheme/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithNoneTheme/outputfile.xlsx
@@ -18,7 +18,7 @@
   <x:definedNames/>
   <x:calcPr calcId="0"/>
   <x:pivotCaches>
-    <x:pivotCache cacheId="4276" r:id="rId3"/>
+    <x:pivotCache cacheId="0" r:id="rId3"/>
   </x:pivotCaches>
 </x:workbook>
 </file>
@@ -249,19 +249,76 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="1" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
+      <x:sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="6">
+        <x:n v="101"/>
+        <x:n v="102"/>
+        <x:n v="103"/>
+        <x:n v="104"/>
+        <x:n v="105"/>
+        <x:m/>
+      </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="NumberOfOrders">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>
+      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14">
+        <x:n v="150"/>
+        <x:n v="250"/>
+        <x:n v="134"/>
+        <x:n v="225"/>
+        <x:n v="210"/>
+        <x:n v="184"/>
+        <x:n v="124"/>
+        <x:n v="394"/>
+        <x:n v="190"/>
+        <x:n v="221"/>
+        <x:n v="135"/>
+        <x:n v="122"/>
+        <x:n v="243"/>
+        <x:n v="255"/>
+      </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Quality">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16"/>
+      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16">
+        <x:n v="60.2"/>
+        <x:n v="50.42"/>
+        <x:n v="22.12"/>
+        <x:n v="89.99"/>
+        <x:n v="70"/>
+        <x:n v="75.33"/>
+        <x:n v="10.24"/>
+        <x:n v="33.33"/>
+        <x:n v="25"/>
+        <x:n v="-20.24"/>
+        <x:n v="60"/>
+        <x:n v="24.76"/>
+        <x:n v="0"/>
+        <x:n v="5.19"/>
+        <x:n v="44.2"/>
+        <x:n v="18.4"/>
+      </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Month">
-      <x:sharedItems containsBlank="1"/>
+      <x:sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <x:m/>
+      </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="BakeDate">
-      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="14"/>
+      <x:sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15">
+        <x:d v="2016-04-21T00:00:00"/>
+        <x:d v="2016-05-03T00:00:00"/>
+        <x:d v="2016-06-24T00:00:00"/>
+        <x:d v="2017-04-23T00:00:00"/>
+        <x:d v="2016-05-24T00:00:00"/>
+        <x:d v="2016-06-02T00:00:00"/>
+        <x:d v="2016-04-27T00:00:00"/>
+        <x:d v="2016-05-20T00:00:00"/>
+        <x:d v="2017-06-05T00:00:00"/>
+        <x:m/>
+        <x:d v="2017-05-08T00:00:00"/>
+        <x:d v="2016-06-21T00:00:00"/>
+        <x:d v="2017-04-22T00:00:00"/>
+        <x:d v="2017-05-03T00:00:00"/>
+        <x:d v="2017-06-14T00:00:00"/>
+      </x:sharedItems>
     </x:cacheField>
   </x:cacheFields>
   <x:extLst>
@@ -277,7 +334,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt2" cacheId="4276" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt2" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisRow" defaultSubtotal="0">
@@ -292,7 +349,11 @@
     <x:pivotField name="Code" defaultSubtotal="0"/>
     <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
     <x:pivotField name="Quality" defaultSubtotal="0"/>
-    <x:pivotField name="Month" axis="axisCol" defaultSubtotal="0"/>
+    <x:pivotField name="Month" axis="axisCol" defaultSubtotal="0">
+      <x:items count="1">
+        <x:item x="0"/>
+      </x:items>
+    </x:pivotField>
     <x:pivotField name="BakeDate" defaultSubtotal="0"/>
   </x:pivotFields>
   <x:rowFields count="1">
@@ -322,7 +383,9 @@
     <x:field x="4"/>
   </x:colFields>
   <x:colItems count="2">
-    <x:i/>
+    <x:i>
+      <x:x v="0"/>
+    </x:i>
     <x:i t="grand">
       <x:x/>
     </x:i>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithNoneTheme/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithNoneTheme/outputfile.xlsx
@@ -249,52 +249,13 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Code">
-      <x:sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="6">
-        <x:n v="101"/>
-        <x:n v="102"/>
-        <x:n v="103"/>
-        <x:n v="104"/>
-        <x:n v="105"/>
-        <x:m/>
-      </x:sharedItems>
+      <x:sharedItems/>
     </x:cacheField>
     <x:cacheField name="NumberOfOrders">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14">
-        <x:n v="150"/>
-        <x:n v="250"/>
-        <x:n v="134"/>
-        <x:n v="225"/>
-        <x:n v="210"/>
-        <x:n v="184"/>
-        <x:n v="124"/>
-        <x:n v="394"/>
-        <x:n v="190"/>
-        <x:n v="221"/>
-        <x:n v="135"/>
-        <x:n v="122"/>
-        <x:n v="243"/>
-        <x:n v="255"/>
-      </x:sharedItems>
+      <x:sharedItems/>
     </x:cacheField>
     <x:cacheField name="Quality">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16">
-        <x:n v="60.2"/>
-        <x:n v="50.42"/>
-        <x:n v="22.12"/>
-        <x:n v="89.99"/>
-        <x:n v="70"/>
-        <x:n v="75.33"/>
-        <x:n v="10.24"/>
-        <x:n v="33.33"/>
-        <x:n v="25"/>
-        <x:n v="-20.24"/>
-        <x:n v="60"/>
-        <x:n v="24.76"/>
-        <x:n v="0"/>
-        <x:n v="5.19"/>
-        <x:n v="44.2"/>
-        <x:n v="18.4"/>
-      </x:sharedItems>
+      <x:sharedItems/>
     </x:cacheField>
     <x:cacheField name="Month">
       <x:sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
@@ -302,23 +263,7 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="BakeDate">
-      <x:sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="15">
-        <x:d v="2016-04-21T00:00:00"/>
-        <x:d v="2016-05-03T00:00:00"/>
-        <x:d v="2016-06-24T00:00:00"/>
-        <x:d v="2017-04-23T00:00:00"/>
-        <x:d v="2016-05-24T00:00:00"/>
-        <x:d v="2016-06-02T00:00:00"/>
-        <x:d v="2016-04-27T00:00:00"/>
-        <x:d v="2016-05-20T00:00:00"/>
-        <x:d v="2017-06-05T00:00:00"/>
-        <x:m/>
-        <x:d v="2017-05-08T00:00:00"/>
-        <x:d v="2016-06-21T00:00:00"/>
-        <x:d v="2017-04-22T00:00:00"/>
-        <x:d v="2017-05-03T00:00:00"/>
-        <x:d v="2017-06-14T00:00:00"/>
-      </x:sharedItems>
+      <x:sharedItems/>
     </x:cacheField>
   </x:cacheFields>
   <x:extLst>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithNoneTheme/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithNoneTheme/outputfile.xlsx
@@ -249,13 +249,13 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Code">
-      <x:sharedItems/>
+      <x:sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105"/>
     </x:cacheField>
     <x:cacheField name="NumberOfOrders">
-      <x:sharedItems/>
+      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394"/>
     </x:cacheField>
     <x:cacheField name="Quality">
-      <x:sharedItems/>
+      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99"/>
     </x:cacheField>
     <x:cacheField name="Month">
       <x:sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
@@ -263,7 +263,7 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="BakeDate">
-      <x:sharedItems/>
+      <x:sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-15T00:00:00"/>
     </x:cacheField>
   </x:cacheFields>
   <x:extLst>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithNoneTheme/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithNoneTheme/outputfile.xlsx
@@ -275,7 +275,136 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="xr">
+  <r>
+    <x v="0"/>
+    <n v="101"/>
+    <n v="150"/>
+    <n v="60.2"/>
+    <x v="0"/>
+    <d v="2016-04-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="101"/>
+    <n v="250"/>
+    <n v="50.42"/>
+    <x v="0"/>
+    <d v="2016-05-03T00:00:00"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="101"/>
+    <n v="134"/>
+    <n v="22.12"/>
+    <x v="0"/>
+    <d v="2016-06-24T00:00:00"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="102"/>
+    <n v="250"/>
+    <n v="89.99"/>
+    <x v="0"/>
+    <d v="2017-04-23T00:00:00"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="102"/>
+    <n v="225"/>
+    <n v="70"/>
+    <x v="0"/>
+    <d v="2016-05-24T00:00:00"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="102"/>
+    <n v="210"/>
+    <n v="75.33"/>
+    <x v="0"/>
+    <d v="2016-06-02T00:00:00"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="103"/>
+    <n v="134"/>
+    <n v="10.24"/>
+    <x v="0"/>
+    <d v="2016-04-27T00:00:00"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="103"/>
+    <n v="184"/>
+    <n v="33.33"/>
+    <x v="0"/>
+    <d v="2016-05-20T00:00:00"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="103"/>
+    <n v="124"/>
+    <n v="25"/>
+    <x v="0"/>
+    <d v="2017-06-05T00:00:00"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="104"/>
+    <n v="394"/>
+    <n v="-20.24"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="104"/>
+    <n v="190"/>
+    <n v="60"/>
+    <x v="0"/>
+    <d v="2017-05-08T00:00:00"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="104"/>
+    <n v="221"/>
+    <n v="24.76"/>
+    <x v="0"/>
+    <d v="2016-06-21T00:00:00"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="105"/>
+    <n v="135"/>
+    <n v="0"/>
+    <x v="0"/>
+    <d v="2017-04-22T00:00:00"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="105"/>
+    <n v="122"/>
+    <n v="5.19"/>
+    <x v="0"/>
+    <d v="2017-05-03T00:00:00"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="105"/>
+    <n v="243"/>
+    <n v="44.2"/>
+    <x v="0"/>
+    <d v="2017-06-14T00:00:00"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="255"/>
+    <n v="18.4"/>
+    <x v="0"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithNoneTheme/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithNoneTheme/outputfile.xlsx
@@ -408,72 +408,72 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt2" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
-  <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <x:pivotFields count="6">
-    <x:pivotField name="Name" axis="axisRow" defaultSubtotal="0">
-      <x:items count="5">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Code" defaultSubtotal="0"/>
-    <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
-    <x:pivotField name="Quality" defaultSubtotal="0"/>
-    <x:pivotField name="Month" axis="axisCol" defaultSubtotal="0">
-      <x:items count="1">
-        <x:item x="0"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="BakeDate" defaultSubtotal="0"/>
-  </x:pivotFields>
-  <x:rowFields count="1">
-    <x:field x="0"/>
-  </x:rowFields>
-  <x:rowItems count="6">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:rowItems>
-  <x:colFields count="1">
-    <x:field x="4"/>
-  </x:colFields>
-  <x:colItems count="2">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:colItems>
-  <x:dataFields count="1">
-    <x:dataField name="NumberOfOrdersPercentageOfBearclaw" fld="2" subtotal="sum" showDataAs="percent" baseField="0" baseItem="2" numFmtId="9"/>
-  </x:dataFields>
-  <x:pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" enableEdit="0" hideValuesRow="1"/>
-    </x:ext>
-  </x:extLst>
-</x:pivotTableDefinition>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" updatedVersion="5">
+  <location ref="A1:C8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField name="Name" axis="axisRow" defaultSubtotal="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField name="Code" defaultSubtotal="0"/>
+    <pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
+    <pivotField name="Quality" defaultSubtotal="0"/>
+    <pivotField name="Month" axis="axisCol" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField name="BakeDate" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="NumberOfOrdersPercentageOfBearclaw" fld="2" showDataAs="percent" baseField="0" baseItem="2" numFmtId="9"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
